--- a/problem sets/problem_set_3/data/one_level_deeper/non_deceptive_placebo.xlsx
+++ b/problem sets/problem_set_3/data/one_level_deeper/non_deceptive_placebo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lytello/Box/school/berkeley/2020_fall/PHW290/PHW290_dev/problem sets/problem_set_3/data/one_level_deeper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947079EB-CAE8-6946-AF4A-8D7AECD5FD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4198621-1CD2-7244-8561-B53315E67AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="460" windowWidth="27620" windowHeight="17040" xr2:uid="{B49E212F-5C2E-174B-82FC-099EF386B529}"/>
   </bookViews>
@@ -42,219 +42,141 @@
     <t>C101_post</t>
   </si>
   <si>
-    <t>D102_pre</t>
-  </si>
-  <si>
     <t>N103_pre</t>
   </si>
   <si>
     <t>C104_pre</t>
   </si>
   <si>
-    <t>D105_pre</t>
-  </si>
-  <si>
     <t>N106_pre</t>
   </si>
   <si>
     <t>C107_pre</t>
   </si>
   <si>
-    <t>D108_pre</t>
-  </si>
-  <si>
     <t>N109_pre</t>
   </si>
   <si>
     <t>C110_pre</t>
   </si>
   <si>
-    <t>D111_pre</t>
-  </si>
-  <si>
     <t>N112_pre</t>
   </si>
   <si>
     <t>C113_pre</t>
   </si>
   <si>
-    <t>D114_pre</t>
-  </si>
-  <si>
     <t>N115_pre</t>
   </si>
   <si>
     <t>C116_pre</t>
   </si>
   <si>
-    <t>D117_pre</t>
-  </si>
-  <si>
     <t>C139_pre</t>
   </si>
   <si>
     <t>N140_pre</t>
   </si>
   <si>
-    <t>D141_pre</t>
-  </si>
-  <si>
-    <t>D142_pre</t>
-  </si>
-  <si>
     <t>N143_pre</t>
   </si>
   <si>
     <t>C144_pre</t>
   </si>
   <si>
-    <t>D145_pre</t>
-  </si>
-  <si>
     <t>N146_pre</t>
   </si>
   <si>
     <t>C147_pre</t>
   </si>
   <si>
-    <t>D148_pre</t>
-  </si>
-  <si>
     <t>N149_pre</t>
   </si>
   <si>
     <t>C150_pre</t>
   </si>
   <si>
-    <t>D151_pre</t>
-  </si>
-  <si>
     <t>N152_pre</t>
   </si>
   <si>
     <t>C153_pre</t>
   </si>
   <si>
-    <t>D154_pre</t>
-  </si>
-  <si>
     <t>N155_pre</t>
   </si>
   <si>
     <t>C156_pre</t>
   </si>
   <si>
-    <t>D157_pre</t>
-  </si>
-  <si>
     <t>N158_pre</t>
   </si>
   <si>
-    <t>D102_post</t>
-  </si>
-  <si>
     <t>N103_post</t>
   </si>
   <si>
     <t>C104_post</t>
   </si>
   <si>
-    <t>D105_post</t>
-  </si>
-  <si>
     <t>N106_post</t>
   </si>
   <si>
     <t>C107_post</t>
   </si>
   <si>
-    <t>D108_post</t>
-  </si>
-  <si>
     <t>N109_post</t>
   </si>
   <si>
     <t>C110_post</t>
   </si>
   <si>
-    <t>D111_post</t>
-  </si>
-  <si>
     <t>N112_post</t>
   </si>
   <si>
     <t>C113_post</t>
   </si>
   <si>
-    <t>D114_post</t>
-  </si>
-  <si>
     <t>N115_post</t>
   </si>
   <si>
     <t>C116_post</t>
   </si>
   <si>
-    <t>D117_post</t>
-  </si>
-  <si>
     <t>C139_post</t>
   </si>
   <si>
     <t>N140_post</t>
   </si>
   <si>
-    <t>D141_post</t>
-  </si>
-  <si>
-    <t>D142_post</t>
-  </si>
-  <si>
     <t>N143_post</t>
   </si>
   <si>
     <t>C144_post</t>
   </si>
   <si>
-    <t>D145_post</t>
-  </si>
-  <si>
     <t>N146_post</t>
   </si>
   <si>
     <t>C147_post</t>
   </si>
   <si>
-    <t>D148_post</t>
-  </si>
-  <si>
     <t>N149_post</t>
   </si>
   <si>
     <t>C150_post</t>
   </si>
   <si>
-    <t>D151_post</t>
-  </si>
-  <si>
     <t>N152_post</t>
   </si>
   <si>
     <t>C153_post</t>
   </si>
   <si>
-    <t>D154_post</t>
-  </si>
-  <si>
     <t>N155_post</t>
   </si>
   <si>
     <t>C156_post</t>
   </si>
   <si>
-    <t>D157_post</t>
-  </si>
-  <si>
     <t>N158_post</t>
   </si>
   <si>
@@ -309,228 +231,150 @@
     <t>C119_PRE</t>
   </si>
   <si>
-    <t>D120_PRE</t>
-  </si>
-  <si>
     <t>N121_PRE</t>
   </si>
   <si>
     <t>N122_PRE</t>
   </si>
   <si>
-    <t>D123_PRE</t>
-  </si>
-  <si>
     <t>C124_PRE</t>
   </si>
   <si>
     <t>N125_PRE</t>
   </si>
   <si>
-    <t>D126_PRE</t>
-  </si>
-  <si>
     <t>C127_PRE</t>
   </si>
   <si>
     <t>N128_PRE</t>
   </si>
   <si>
-    <t>D129_PRE</t>
-  </si>
-  <si>
     <t>C130_PRE</t>
   </si>
   <si>
     <t>N131_PRE</t>
   </si>
   <si>
-    <t>D132_PRE</t>
-  </si>
-  <si>
     <t>C133_PRE</t>
   </si>
   <si>
     <t>N134_PRE</t>
   </si>
   <si>
-    <t>D135_PRE</t>
-  </si>
-  <si>
     <t>C136_PRE</t>
   </si>
   <si>
     <t>N137_PRE</t>
   </si>
   <si>
-    <t>D138_PRE</t>
-  </si>
-  <si>
     <t>C159_PRE</t>
   </si>
   <si>
-    <t>D160_PRE</t>
-  </si>
-  <si>
     <t>C161_PRE</t>
   </si>
   <si>
     <t>N162_PRE</t>
   </si>
   <si>
-    <t>D163_PRE</t>
-  </si>
-  <si>
     <t>C164_PRE</t>
   </si>
   <si>
     <t>N165_PRE</t>
   </si>
   <si>
-    <t>D166_PRE</t>
-  </si>
-  <si>
     <t>C167_PRE</t>
   </si>
   <si>
     <t>N168_PRE</t>
   </si>
   <si>
-    <t>D169_PRE</t>
-  </si>
-  <si>
     <t>C170_PRE</t>
   </si>
   <si>
     <t>N171_PRE</t>
   </si>
   <si>
-    <t>D172_PRE</t>
-  </si>
-  <si>
     <t>C173_PRE</t>
   </si>
   <si>
     <t>N174_PRE</t>
   </si>
   <si>
-    <t>D175_PRE</t>
-  </si>
-  <si>
     <t>N118_POST</t>
   </si>
   <si>
     <t>C119_POST</t>
   </si>
   <si>
-    <t>D120_POST</t>
-  </si>
-  <si>
     <t>N121_POST</t>
   </si>
   <si>
     <t>N122_POST</t>
   </si>
   <si>
-    <t>D123_POST</t>
-  </si>
-  <si>
     <t>C124_POST</t>
   </si>
   <si>
     <t>N125_POST</t>
   </si>
   <si>
-    <t>D126_POST</t>
-  </si>
-  <si>
     <t>C127_POST</t>
   </si>
   <si>
     <t>N128_POST</t>
   </si>
   <si>
-    <t>D129_POST</t>
-  </si>
-  <si>
     <t>C130_POST</t>
   </si>
   <si>
     <t>N131_POST</t>
   </si>
   <si>
-    <t>D132_POST</t>
-  </si>
-  <si>
     <t>C133_POST</t>
   </si>
   <si>
     <t>N134_POST</t>
   </si>
   <si>
-    <t>D135_POST</t>
-  </si>
-  <si>
     <t>C136_POST</t>
   </si>
   <si>
     <t>N137_POST</t>
   </si>
   <si>
-    <t>D138_POST</t>
-  </si>
-  <si>
     <t>C159_POST</t>
   </si>
   <si>
-    <t>D160_POST</t>
-  </si>
-  <si>
     <t>C161_POST</t>
   </si>
   <si>
     <t>N162_POST</t>
   </si>
   <si>
-    <t>D163_POST</t>
-  </si>
-  <si>
     <t>C164_POST</t>
   </si>
   <si>
     <t>N165_POST</t>
   </si>
   <si>
-    <t>D166_POST</t>
-  </si>
-  <si>
     <t>C167_POST</t>
   </si>
   <si>
     <t>N168_POST</t>
   </si>
   <si>
-    <t>D169_POST</t>
-  </si>
-  <si>
     <t>C170_POST</t>
   </si>
   <si>
     <t>N171_POST</t>
   </si>
   <si>
-    <t>D172_POST</t>
-  </si>
-  <si>
     <t>C173_POST</t>
   </si>
   <si>
     <t>N174_POST</t>
   </si>
   <si>
-    <t>D175_POST</t>
-  </si>
-  <si>
     <t>09-Jan-18</t>
   </si>
   <si>
@@ -565,6 +409,162 @@
   </si>
   <si>
     <t>25-Mar-19</t>
+  </si>
+  <si>
+    <t>P105_pre</t>
+  </si>
+  <si>
+    <t>P108_pre</t>
+  </si>
+  <si>
+    <t>P111_pre</t>
+  </si>
+  <si>
+    <t>P114_pre</t>
+  </si>
+  <si>
+    <t>P117_pre</t>
+  </si>
+  <si>
+    <t>P120_PRE</t>
+  </si>
+  <si>
+    <t>P123_PRE</t>
+  </si>
+  <si>
+    <t>P126_PRE</t>
+  </si>
+  <si>
+    <t>P129_PRE</t>
+  </si>
+  <si>
+    <t>P132_PRE</t>
+  </si>
+  <si>
+    <t>P135_PRE</t>
+  </si>
+  <si>
+    <t>P138_PRE</t>
+  </si>
+  <si>
+    <t>P141_pre</t>
+  </si>
+  <si>
+    <t>P142_pre</t>
+  </si>
+  <si>
+    <t>P145_pre</t>
+  </si>
+  <si>
+    <t>P148_pre</t>
+  </si>
+  <si>
+    <t>P151_pre</t>
+  </si>
+  <si>
+    <t>P154_pre</t>
+  </si>
+  <si>
+    <t>P157_pre</t>
+  </si>
+  <si>
+    <t>P160_PRE</t>
+  </si>
+  <si>
+    <t>P163_PRE</t>
+  </si>
+  <si>
+    <t>P166_PRE</t>
+  </si>
+  <si>
+    <t>P169_PRE</t>
+  </si>
+  <si>
+    <t>P172_PRE</t>
+  </si>
+  <si>
+    <t>P175_PRE</t>
+  </si>
+  <si>
+    <t>P142_post</t>
+  </si>
+  <si>
+    <t>P105_post</t>
+  </si>
+  <si>
+    <t>P108_post</t>
+  </si>
+  <si>
+    <t>P102_post</t>
+  </si>
+  <si>
+    <t>P111_post</t>
+  </si>
+  <si>
+    <t>P114_post</t>
+  </si>
+  <si>
+    <t>P123_POST</t>
+  </si>
+  <si>
+    <t>P129_POST</t>
+  </si>
+  <si>
+    <t>P132_POST</t>
+  </si>
+  <si>
+    <t>P135_POST</t>
+  </si>
+  <si>
+    <t>P138_POST</t>
+  </si>
+  <si>
+    <t>P141_post</t>
+  </si>
+  <si>
+    <t>P145_post</t>
+  </si>
+  <si>
+    <t>P148_post</t>
+  </si>
+  <si>
+    <t>P154_post</t>
+  </si>
+  <si>
+    <t>P151_post</t>
+  </si>
+  <si>
+    <t>P157_post</t>
+  </si>
+  <si>
+    <t>P160_POST</t>
+  </si>
+  <si>
+    <t>P163_POST</t>
+  </si>
+  <si>
+    <t>P166_POST</t>
+  </si>
+  <si>
+    <t>P169_POST</t>
+  </si>
+  <si>
+    <t>P175_POST</t>
+  </si>
+  <si>
+    <t>P120_POST</t>
+  </si>
+  <si>
+    <t>P117_post</t>
+  </si>
+  <si>
+    <t>P126_POST</t>
+  </si>
+  <si>
+    <t>P172_POST</t>
+  </si>
+  <si>
+    <t>P102_pre</t>
   </si>
 </sst>
 </file>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEC9BC-7267-DD43-BB21-7B3474A2DB20}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135:D151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -949,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -957,10 +957,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -984,13 +984,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -999,13 +999,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1179,13 +1179,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1194,13 +1194,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1224,13 +1224,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1239,13 +1239,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -1284,13 +1284,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -1299,13 +1299,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -1374,13 +1374,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -1389,13 +1389,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D31">
         <v>8</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -1419,13 +1419,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="D33">
         <v>9</v>
@@ -1434,13 +1434,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -1449,13 +1449,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D35">
         <v>7</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="D36">
         <v>10</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="D39">
         <v>7</v>
@@ -1524,13 +1524,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D40">
         <v>7</v>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D42">
         <v>8</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D44">
         <v>9</v>
@@ -1599,13 +1599,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D45">
         <v>7</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -1644,13 +1644,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <v>8</v>
@@ -1659,13 +1659,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D49">
         <v>8</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D51">
         <v>8</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>7</v>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D54">
         <v>9</v>
@@ -1749,13 +1749,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D55">
         <v>9</v>
@@ -1764,13 +1764,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>9</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D59">
         <v>10</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -1869,13 +1869,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="D63">
         <v>7</v>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="D65">
         <v>9</v>
@@ -1914,13 +1914,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="D66">
         <v>7</v>
@@ -1929,13 +1929,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" t="s">
         <v>120</v>
-      </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" t="s">
-        <v>172</v>
       </c>
       <c r="D67">
         <v>7</v>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="D68">
         <v>7</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="D69">
         <v>9</v>
@@ -1974,13 +1974,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="D70">
         <v>10</v>
@@ -1989,13 +1989,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="D71">
         <v>9</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -2019,13 +2019,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="D73">
         <v>9</v>
@@ -2034,13 +2034,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="D74">
         <v>8</v>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="D75">
         <v>9</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="D76">
         <v>7</v>
@@ -2082,10 +2082,10 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D77">
         <v>9</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D80">
         <v>8</v>
@@ -2139,13 +2139,13 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2154,13 +2154,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -2169,13 +2169,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D83">
         <v>10</v>
@@ -2184,13 +2184,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -2199,13 +2199,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D86">
         <v>8</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D87">
         <v>7</v>
@@ -2244,13 +2244,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D88">
         <v>8</v>
@@ -2259,13 +2259,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D89">
         <v>9</v>
@@ -2274,13 +2274,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D90">
         <v>8</v>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D91">
         <v>9</v>
@@ -2304,13 +2304,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D92">
         <v>7</v>
@@ -2319,13 +2319,13 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="D95">
         <v>7</v>
@@ -2364,13 +2364,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -2379,13 +2379,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -2394,13 +2394,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -2409,13 +2409,13 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -2424,13 +2424,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="D100">
         <v>10</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C102" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D102">
         <v>6</v>
@@ -2469,13 +2469,13 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C103" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="D103">
         <v>8</v>
@@ -2484,13 +2484,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -2499,13 +2499,13 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C105" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D107">
         <v>7</v>
@@ -2544,13 +2544,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -2559,13 +2559,13 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="D109">
         <v>7</v>
@@ -2574,13 +2574,13 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2604,13 +2604,13 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="D112">
         <v>10</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D113">
         <v>8</v>
@@ -2634,13 +2634,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -2649,13 +2649,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" t="s">
         <v>57</v>
-      </c>
-      <c r="B115" t="s">
-        <v>77</v>
-      </c>
-      <c r="C115" t="s">
-        <v>83</v>
       </c>
       <c r="D115">
         <v>9</v>
@@ -2664,13 +2664,13 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C116" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -2679,13 +2679,13 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D117">
         <v>7</v>
@@ -2694,13 +2694,13 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D118">
         <v>6</v>
@@ -2709,13 +2709,13 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C119" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -2724,13 +2724,13 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C120" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D120">
         <v>8</v>
@@ -2739,13 +2739,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="B121" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D121">
         <v>7</v>
@@ -2754,13 +2754,13 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" t="s">
         <v>64</v>
-      </c>
-      <c r="B122" t="s">
-        <v>77</v>
-      </c>
-      <c r="C122" t="s">
-        <v>90</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C123" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D123">
         <v>7</v>
@@ -2784,13 +2784,13 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -2799,13 +2799,13 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C125" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -2814,13 +2814,13 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C126" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D126">
         <v>8</v>
@@ -2829,13 +2829,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D127">
         <v>5</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C128" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D128">
         <v>7</v>
@@ -2859,13 +2859,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B129" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C129" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D129">
         <v>7</v>
@@ -2874,13 +2874,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="B130" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D130">
         <v>6</v>
@@ -2889,13 +2889,13 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C131" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D131">
         <v>6</v>
@@ -2904,13 +2904,13 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B132" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D132">
         <v>7</v>
@@ -2919,13 +2919,13 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B133" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D133">
         <v>6</v>
@@ -2934,13 +2934,13 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C134" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D134">
         <v>8</v>
@@ -2949,13 +2949,13 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B135" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C135" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="D135">
         <v>9</v>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B136" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C136" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D136">
         <v>6</v>
@@ -2979,13 +2979,13 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B137" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C137" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="D137">
         <v>10</v>
@@ -2994,13 +2994,13 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B138" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B139" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D139">
         <v>5</v>
@@ -3024,13 +3024,13 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="B140" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C140" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="D140">
         <v>9</v>
@@ -3039,13 +3039,13 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B141" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D141">
         <v>5</v>
@@ -3054,13 +3054,13 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B142" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C142" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D142">
         <v>5</v>
@@ -3069,13 +3069,13 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C143" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -3084,13 +3084,13 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="B144" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C144" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B145" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C145" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -3114,13 +3114,13 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="B146" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C146" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="D146">
         <v>7</v>
@@ -3129,13 +3129,13 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="B147" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C147" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D147">
         <v>5</v>
@@ -3144,13 +3144,13 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B148" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C148" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D148">
         <v>4</v>
@@ -3159,13 +3159,13 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="B149" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="D149">
         <v>7</v>
@@ -3174,13 +3174,13 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B150" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C150" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D150">
         <v>5</v>
@@ -3189,13 +3189,13 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C151" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D151">
         <v>5</v>
